--- a/docs/previa ddbb.xlsx
+++ b/docs/previa ddbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ISIL\IV\Desarrollo de aplicaciones empresariales I\ProjectoGrupal\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D5DE9C-E054-4484-BE2E-54C18D90DB4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF37417-B5CF-483E-A6A1-351FB26FBDCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F0BB973-EB08-4125-AF53-A31109F89C78}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F0BB973-EB08-4125-AF53-A31109F89C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>USUARIO</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>cineUbicacion</t>
+  </si>
+  <si>
+    <t>idCineUbicacion</t>
   </si>
 </sst>
 </file>
@@ -493,118 +499,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0BF973-AB5A-4D50-A97A-18C7E57FBDDB}">
-  <dimension ref="D5:M32"/>
+  <dimension ref="B5:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
       <c r="H14" t="s">
@@ -614,8 +629,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="H15" t="s">
@@ -625,122 +640,122 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>27</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>19</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>20</v>
       </c>
       <c r="H25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>21</v>
       </c>
       <c r="H26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
         <v>1</v>
       </c>
     </row>
